--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -597,10 +597,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"boolean,decimal,integer,string,uri"</formula1>
+      <formula1>"boolean,date,datetime,decimal,integer,string,uri"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"boolean,decimal,integer,string,uri"</formula1>
+      <formula1>"boolean,date,datetime,decimal,integer,string,uri"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -495,17 +495,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"Quantitative,Ordinal,Nominal,Narrative"</formula1>
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Informative,Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"Quantitative,Ordinal,Nominal,Narrative"</formula1>
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Informative,Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -596,11 +596,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"boolean,date,datetime,decimal,integer,string,uri"</formula1>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"boolean,date,datetime,decimal,duration,integer,string,uri"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"boolean,date,datetime,decimal,integer,string,uri"</formula1>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"boolean,date,datetime,decimal,duration,integer,string,uri"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -499,13 +499,13 @@
       <formula1>"bc"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Informative,Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
+      <formula1>"Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Informative,Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
+      <formula1>"Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -429,37 +429,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>packageDate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>packageType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>BiomedicalConcept_conceptId</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>BiomedicalConcept_ncitCode</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>BiomedicalConcept_href</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>packageDate</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>packageType</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>parentConceptId</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>categories</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>parentConceptId</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -495,13 +495,13 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
@@ -624,37 +624,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>packageDate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>packageType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>BiomedicalConcept_conceptId</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>BiomedicalConcept_ncitCode</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>BiomedicalConcept_href</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>packageDate</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>packageType</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>parentConceptId</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>categories</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>parentConceptId</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -4,15 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BiomedicalConcept" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataElementConcept" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BiomedicalConcept1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataElementConcept1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,17 +436,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>BiomedicalConcept_conceptId</t>
+          <t>conceptId</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>BiomedicalConcept_ncitCode</t>
+          <t>ncitCode</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>BiomedicalConcept_href</t>
+          <t>href</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -494,13 +491,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"bc"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Ordinal,Narrative,Nominal,Quantitative,Temporal"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bc"</formula1>
     </dataValidation>
@@ -565,17 +556,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DataElementConcept_conceptId</t>
+          <t>conceptId</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DataElementConcept_ncitCode</t>
+          <t>ncitCode</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DataElementConcept_href</t>
+          <t>href</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -595,187 +586,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"boolean,date,datetime,decimal,duration,integer,string,uri"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"boolean,date,datetime,decimal,duration,integer,string,uri"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>packageDate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>packageType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BiomedicalConcept_conceptId</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>BiomedicalConcept_ncitCode</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>BiomedicalConcept_href</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>parentConceptId</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>resultScales</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dataElementConcepts</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>systemName</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DataElementConcept_conceptId</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DataElementConcept_ncitCode</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DataElementConcept_href</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dataType</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>exampleSet</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BiomedicalConcept" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataElementConcept" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BiomedicalConcept" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Coding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DataElementConcept" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BiomedicalConcept" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Coding" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DataElementConcept" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BiomedicalConcept" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataElementConcept" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/project/bc/excel/cosmos_bc_model.xlsx
+++ b/project/bc/excel/cosmos_bc_model.xlsx
@@ -588,7 +588,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"boolean,date,datetime,decimal,duration,integer,string,uri"</formula1>
+      <formula1>"boolean,date,datetime,decimal,duration,float,integer,string,uri"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
